--- a/tools/scenarios_matrix.xlsx
+++ b/tools/scenarios_matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">holding!$A$1:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">holding!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,33 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>yingzhao zhang</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>initial_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,14 +65,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200016.IB</t>
-  </si>
-  <si>
     <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>210210.IB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -180,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,14 +162,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -254,16 +214,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -577,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,157 +546,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6">
-        <v>44558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>18</v>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -749,11 +706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -767,7 +724,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -796,26 +753,26 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="C2" t="str">
         <f>IF(A2&lt;&gt;"",[1]!b_info_carrydate(A2),"")</f>
-        <v>2020-11-19</v>
+        <v>2021-09-13</v>
       </c>
       <c r="D2" t="str">
         <f>IF(A2&lt;&gt;"",[1]!b_info_maturitydate(A2),"")</f>
-        <v>2030-11-19</v>
-      </c>
-      <c r="E2" s="3">
+        <v>2031-09-13</v>
+      </c>
+      <c r="E2" s="2">
         <f>IF(A2&lt;&gt;"",[1]!b_issue_issueprice(A2),"")</f>
         <v>100</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>IF(A2&lt;&gt;"",[1]!b_info_couponrate(A2),"")</f>
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="G2" t="str">
         <f>IF(A2&lt;&gt;"",[1]!b_info_coupon(A2),"")</f>
@@ -823,89 +780,22 @@
       </c>
       <c r="H2">
         <f>IF(A2&lt;&gt;"",[1]!b_info_interestfrequency(A2),"")</f>
-        <v>2</v>
-      </c>
-      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
         <f>IF(A2&lt;&gt;"",[1]!b_anal_yield_cnbd(A2,parameter!C$2,1),"")</f>
-        <v>2.8614000000000002</v>
+        <v>3.0975000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <f>IF(A3&lt;&gt;"",[1]!b_info_carrydate(A3),"")</f>
-        <v>2021-06-07</v>
-      </c>
-      <c r="D3" t="str">
-        <f>IF(A3&lt;&gt;"",[1]!b_info_maturitydate(A3),"")</f>
-        <v>2031-06-07</v>
-      </c>
-      <c r="E3" s="3">
-        <f>IF(A3&lt;&gt;"",[1]!b_issue_issueprice(A3),"")</f>
-        <v>100</v>
-      </c>
-      <c r="F3" s="3">
-        <f>IF(A3&lt;&gt;"",[1]!b_info_couponrate(A3),"")</f>
-        <v>3.41</v>
-      </c>
-      <c r="G3" t="str">
-        <f>IF(A3&lt;&gt;"",[1]!b_info_coupon(A3),"")</f>
-        <v>附息</v>
-      </c>
-      <c r="H3">
-        <f>IF(A3&lt;&gt;"",[1]!b_info_interestfrequency(A3),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <f>IF(A3&lt;&gt;"",[1]!b_anal_yield_cnbd(A3,parameter!C$2,1),"")</f>
-        <v>3.1676000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>20000</v>
-      </c>
-      <c r="C4" t="str">
-        <f>IF(A4&lt;&gt;"",[1]!b_info_carrydate(A4),"")</f>
-        <v>2021-09-13</v>
-      </c>
-      <c r="D4" t="str">
-        <f>IF(A4&lt;&gt;"",[1]!b_info_maturitydate(A4),"")</f>
-        <v>2031-09-13</v>
-      </c>
-      <c r="E4" s="3">
-        <f>IF(A4&lt;&gt;"",[1]!b_issue_issueprice(A4),"")</f>
-        <v>100</v>
-      </c>
-      <c r="F4" s="3">
-        <f>IF(A4&lt;&gt;"",[1]!b_info_couponrate(A4),"")</f>
-        <v>3.12</v>
-      </c>
-      <c r="G4" t="str">
-        <f>IF(A4&lt;&gt;"",[1]!b_info_coupon(A4),"")</f>
-        <v>附息</v>
-      </c>
-      <c r="H4">
-        <f>IF(A4&lt;&gt;"",[1]!b_info_interestfrequency(A4),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <f>IF(A4&lt;&gt;"",[1]!b_anal_yield_cnbd(A4,parameter!C$2,1),"")</f>
-        <v>3.0794000000000001</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I3"/>
+  <autoFilter ref="A1:I1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tools/scenarios_matrix.xlsx
+++ b/tools/scenarios_matrix.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FXIncome\tools\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -19,9 +14,9 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">holding!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">holding!$A$1:$I$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>initial_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +64,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>210210.IB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>基准日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,38 +112,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期标定的值，表示n天后的情景，如10,30,90,180,270,365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分债券到期后本金的再投资收益率，如0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基点的变动取值，表示债券收益率相对于当前中债估值的变化，如-100,-80,-50,-30,-20,-10,0,10,20,30,50,80,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>基准日期，如2021/12/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期标定的值，表示n天后的情景，如10,30,90,180,270,365</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分债券到期后本金的再投资收益率，如0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基点的变动取值，表示债券收益率相对于当前中债估值的变化，如-100,-80,-50,-30,-20,-10,0,10,20,30,50,80,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,30,90,180,270,365</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>210215.IB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-100,-50,-20,-15,-10,-5,0,5,10,15,20,50,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,30,90,180,240,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220201.IB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
   </numFmts>
@@ -214,9 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -524,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -535,7 +537,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,157 +548,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5">
-        <v>44705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +712,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,6 +721,7 @@
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,27 +755,27 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
+      <c r="A2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C2" t="str">
         <f>IF(A2&lt;&gt;"",[1]!b_info_carrydate(A2),"")</f>
-        <v>2021-09-13</v>
+        <v>2021-06-07</v>
       </c>
       <c r="D2" t="str">
         <f>IF(A2&lt;&gt;"",[1]!b_info_maturitydate(A2),"")</f>
-        <v>2031-09-13</v>
-      </c>
-      <c r="E2" s="2">
+        <v>2031-06-07</v>
+      </c>
+      <c r="E2" s="3">
         <f>IF(A2&lt;&gt;"",[1]!b_issue_issueprice(A2),"")</f>
         <v>100</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <f>IF(A2&lt;&gt;"",[1]!b_info_couponrate(A2),"")</f>
-        <v>3.12</v>
+        <v>3.41</v>
       </c>
       <c r="G2" t="str">
         <f>IF(A2&lt;&gt;"",[1]!b_info_coupon(A2),"")</f>
@@ -782,18 +785,49 @@
         <f>IF(A2&lt;&gt;"",[1]!b_info_interestfrequency(A2),"")</f>
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <f>IF(A2&lt;&gt;"",[1]!b_anal_yield_cnbd(A2,parameter!C$2,1),"")</f>
-        <v>3.0975000000000001</v>
+        <v>3.2025000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(A3&lt;&gt;"",[1]!b_info_carrydate(A3),"")</f>
+        <v>2022-01-13</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(A3&lt;&gt;"",[1]!b_info_maturitydate(A3),"")</f>
+        <v>2023-01-13</v>
+      </c>
+      <c r="E3" s="3">
+        <f>IF(A3&lt;&gt;"",[1]!b_issue_issueprice(A3),"")</f>
+        <v>100</v>
+      </c>
+      <c r="F3" s="3">
+        <f>IF(A3&lt;&gt;"",[1]!b_info_couponrate(A3),"")</f>
+        <v>2.09</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(A3&lt;&gt;"",[1]!b_info_coupon(A3),"")</f>
+        <v>到期一次还本付息</v>
+      </c>
+      <c r="H3">
+        <f>IF(A3&lt;&gt;"",[1]!b_info_interestfrequency(A3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f>IF(A3&lt;&gt;"",[1]!b_anal_yield_cnbd(A3,parameter!C$2,1),"")</f>
+        <v>2.25</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tools/scenarios_matrix.xlsx
+++ b/tools/scenarios_matrix.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">holding!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">holding!$A$1:$I$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>initial_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,11 +132,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10,30,90,180,240,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220201.IB</t>
+    <t>10,30,90,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200009.IB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200202.IB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220206.IB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>229914.IB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +549,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,7 +578,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="6">
-        <v>44629</v>
+        <v>44739</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -709,10 +721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -755,19 +767,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
+      <c r="A2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>25000</v>
+        <v>1</v>
       </c>
       <c r="C2" t="str">
         <f>IF(A2&lt;&gt;"",[1]!b_info_carrydate(A2),"")</f>
-        <v>2021-06-07</v>
+        <v>2020-07-02</v>
       </c>
       <c r="D2" t="str">
         <f>IF(A2&lt;&gt;"",[1]!b_info_maturitydate(A2),"")</f>
-        <v>2031-06-07</v>
+        <v>2023-07-02</v>
       </c>
       <c r="E2" s="3">
         <f>IF(A2&lt;&gt;"",[1]!b_issue_issueprice(A2),"")</f>
@@ -775,7 +787,7 @@
       </c>
       <c r="F2" s="3">
         <f>IF(A2&lt;&gt;"",[1]!b_info_couponrate(A2),"")</f>
-        <v>3.41</v>
+        <v>2.36</v>
       </c>
       <c r="G2" t="str">
         <f>IF(A2&lt;&gt;"",[1]!b_info_coupon(A2),"")</f>
@@ -787,23 +799,23 @@
       </c>
       <c r="I2" s="3">
         <f>IF(A2&lt;&gt;"",[1]!b_anal_yield_cnbd(A2,parameter!C$2,1),"")</f>
-        <v>3.2025000000000001</v>
+        <v>2.0449999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="C3" t="str">
         <f>IF(A3&lt;&gt;"",[1]!b_info_carrydate(A3),"")</f>
-        <v>2022-01-13</v>
+        <v>2020-04-09</v>
       </c>
       <c r="D3" t="str">
         <f>IF(A3&lt;&gt;"",[1]!b_info_maturitydate(A3),"")</f>
-        <v>2023-01-13</v>
+        <v>2023-04-09</v>
       </c>
       <c r="E3" s="3">
         <f>IF(A3&lt;&gt;"",[1]!b_issue_issueprice(A3),"")</f>
@@ -811,23 +823,131 @@
       </c>
       <c r="F3" s="3">
         <f>IF(A3&lt;&gt;"",[1]!b_info_couponrate(A3),"")</f>
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="G3" t="str">
         <f>IF(A3&lt;&gt;"",[1]!b_info_coupon(A3),"")</f>
-        <v>到期一次还本付息</v>
+        <v>附息</v>
       </c>
       <c r="H3">
         <f>IF(A3&lt;&gt;"",[1]!b_info_interestfrequency(A3),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
         <f>IF(A3&lt;&gt;"",[1]!b_anal_yield_cnbd(A3,parameter!C$2,1),"")</f>
-        <v>2.25</v>
+        <v>2.0352999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IF(A4&lt;&gt;"",[1]!b_info_carrydate(A4),"")</f>
+        <v>2021-06-07</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(A4&lt;&gt;"",[1]!b_info_maturitydate(A4),"")</f>
+        <v>2031-06-07</v>
+      </c>
+      <c r="E4" s="3">
+        <f>IF(A4&lt;&gt;"",[1]!b_issue_issueprice(A4),"")</f>
+        <v>100</v>
+      </c>
+      <c r="F4" s="3">
+        <f>IF(A4&lt;&gt;"",[1]!b_info_couponrate(A4),"")</f>
+        <v>3.41</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(A4&lt;&gt;"",[1]!b_info_coupon(A4),"")</f>
+        <v>附息</v>
+      </c>
+      <c r="H4">
+        <f>IF(A4&lt;&gt;"",[1]!b_info_interestfrequency(A4),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <f>IF(A4&lt;&gt;"",[1]!b_anal_yield_cnbd(A4,parameter!C$2,1),"")</f>
+        <v>3.1524999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(A5&lt;&gt;"",[1]!b_info_carrydate(A5),"")</f>
+        <v>2022-05-23</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(A5&lt;&gt;"",[1]!b_info_maturitydate(A5),"")</f>
+        <v>2023-05-23</v>
+      </c>
+      <c r="E5" s="3">
+        <f>IF(A5&lt;&gt;"",[1]!b_issue_issueprice(A5),"")</f>
+        <v>100</v>
+      </c>
+      <c r="F5" s="3">
+        <f>IF(A5&lt;&gt;"",[1]!b_info_couponrate(A5),"")</f>
+        <v>1.83</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(A5&lt;&gt;"",[1]!b_info_coupon(A5),"")</f>
+        <v>到期一次还本付息</v>
+      </c>
+      <c r="H5">
+        <f>IF(A5&lt;&gt;"",[1]!b_info_interestfrequency(A5),"")</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f>IF(A5&lt;&gt;"",[1]!b_anal_yield_cnbd(A5,parameter!C$2,1),"")</f>
+        <v>2.0550000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>40000</v>
+      </c>
+      <c r="C6" t="str">
+        <f>IF(A6&lt;&gt;"",[1]!b_info_carrydate(A6),"")</f>
+        <v>2022-04-11</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(A6&lt;&gt;"",[1]!b_info_maturitydate(A6),"")</f>
+        <v>2022-07-11</v>
+      </c>
+      <c r="E6" s="3">
+        <f>IF(A6&lt;&gt;"",[1]!b_issue_issueprice(A6),"")</f>
+        <v>99.570999999999998</v>
+      </c>
+      <c r="F6" s="3">
+        <f>IF(A6&lt;&gt;"",[1]!b_info_couponrate(A6),"")</f>
+        <v>1.7269000000000001</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(A6&lt;&gt;"",[1]!b_info_coupon(A6),"")</f>
+        <v>贴现</v>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",[1]!b_info_interestfrequency(A6),"")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f>IF(A6&lt;&gt;"",[1]!b_anal_yield_cnbd(A6,parameter!C$2,1),"")</f>
+        <v>1.5398000000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2"/>
+  <autoFilter ref="A1:I4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tools/scenarios_matrix.xlsx
+++ b/tools/scenarios_matrix.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>initial_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>210210.IB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基准日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,19 +132,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200009.IB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200202.IB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220206.IB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>229914.IB</t>
+    <t>092218001.IB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180210.IB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200205.IB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220220.IB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,66 +545,66 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.625" customWidth="1"/>
     <col min="3" max="3" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6">
-        <v>44739</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5">
         <v>0.02</v>
@@ -619,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -630,10 +626,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -641,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -652,10 +648,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -663,10 +659,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -674,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -685,10 +681,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -696,10 +692,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -707,10 +703,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -721,10 +717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,18 +764,18 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>13000</v>
       </c>
       <c r="C2" t="str">
         <f>IF(A2&lt;&gt;"",[1]!b_info_carrydate(A2),"")</f>
-        <v>2020-07-02</v>
+        <v>2022-02-21</v>
       </c>
       <c r="D2" t="str">
         <f>IF(A2&lt;&gt;"",[1]!b_info_maturitydate(A2),"")</f>
-        <v>2023-07-02</v>
+        <v>2024-02-21</v>
       </c>
       <c r="E2" s="3">
         <f>IF(A2&lt;&gt;"",[1]!b_issue_issueprice(A2),"")</f>
@@ -787,7 +783,7 @@
       </c>
       <c r="F2" s="3">
         <f>IF(A2&lt;&gt;"",[1]!b_info_couponrate(A2),"")</f>
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="G2" t="str">
         <f>IF(A2&lt;&gt;"",[1]!b_info_coupon(A2),"")</f>
@@ -799,23 +795,23 @@
       </c>
       <c r="I2" s="3">
         <f>IF(A2&lt;&gt;"",[1]!b_anal_yield_cnbd(A2,parameter!C$2,1),"")</f>
-        <v>2.0449999999999999</v>
+        <v>2.4525000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>11000</v>
       </c>
       <c r="C3" t="str">
         <f>IF(A3&lt;&gt;"",[1]!b_info_carrydate(A3),"")</f>
-        <v>2020-04-09</v>
+        <v>2018-07-06</v>
       </c>
       <c r="D3" t="str">
         <f>IF(A3&lt;&gt;"",[1]!b_info_maturitydate(A3),"")</f>
-        <v>2023-04-09</v>
+        <v>2028-07-06</v>
       </c>
       <c r="E3" s="3">
         <f>IF(A3&lt;&gt;"",[1]!b_issue_issueprice(A3),"")</f>
@@ -823,7 +819,7 @@
       </c>
       <c r="F3" s="3">
         <f>IF(A3&lt;&gt;"",[1]!b_info_couponrate(A3),"")</f>
-        <v>1.86</v>
+        <v>4.04</v>
       </c>
       <c r="G3" t="str">
         <f>IF(A3&lt;&gt;"",[1]!b_info_coupon(A3),"")</f>
@@ -835,23 +831,23 @@
       </c>
       <c r="I3" s="3">
         <f>IF(A3&lt;&gt;"",[1]!b_anal_yield_cnbd(A3,parameter!C$2,1),"")</f>
-        <v>2.0352999999999999</v>
+        <v>2.9049999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>7000</v>
       </c>
       <c r="C4" t="str">
         <f>IF(A4&lt;&gt;"",[1]!b_info_carrydate(A4),"")</f>
-        <v>2021-06-07</v>
+        <v>2020-03-10</v>
       </c>
       <c r="D4" t="str">
         <f>IF(A4&lt;&gt;"",[1]!b_info_maturitydate(A4),"")</f>
-        <v>2031-06-07</v>
+        <v>2030-03-10</v>
       </c>
       <c r="E4" s="3">
         <f>IF(A4&lt;&gt;"",[1]!b_issue_issueprice(A4),"")</f>
@@ -859,7 +855,7 @@
       </c>
       <c r="F4" s="3">
         <f>IF(A4&lt;&gt;"",[1]!b_info_couponrate(A4),"")</f>
-        <v>3.41</v>
+        <v>3.07</v>
       </c>
       <c r="G4" t="str">
         <f>IF(A4&lt;&gt;"",[1]!b_info_coupon(A4),"")</f>
@@ -871,7 +867,7 @@
       </c>
       <c r="I4" s="3">
         <f>IF(A4&lt;&gt;"",[1]!b_anal_yield_cnbd(A4,parameter!C$2,1),"")</f>
-        <v>3.1524999999999999</v>
+        <v>3.0049999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -879,15 +875,15 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>19000</v>
       </c>
       <c r="C5" t="str">
         <f>IF(A5&lt;&gt;"",[1]!b_info_carrydate(A5),"")</f>
-        <v>2022-05-23</v>
+        <v>2022-10-24</v>
       </c>
       <c r="D5" t="str">
         <f>IF(A5&lt;&gt;"",[1]!b_info_maturitydate(A5),"")</f>
-        <v>2023-05-23</v>
+        <v>2032-10-24</v>
       </c>
       <c r="E5" s="3">
         <f>IF(A5&lt;&gt;"",[1]!b_issue_issueprice(A5),"")</f>
@@ -895,55 +891,19 @@
       </c>
       <c r="F5" s="3">
         <f>IF(A5&lt;&gt;"",[1]!b_info_couponrate(A5),"")</f>
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="G5" t="str">
         <f>IF(A5&lt;&gt;"",[1]!b_info_coupon(A5),"")</f>
-        <v>到期一次还本付息</v>
+        <v>附息</v>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",[1]!b_info_interestfrequency(A5),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
         <f>IF(A5&lt;&gt;"",[1]!b_anal_yield_cnbd(A5,parameter!C$2,1),"")</f>
-        <v>2.0550000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>40000</v>
-      </c>
-      <c r="C6" t="str">
-        <f>IF(A6&lt;&gt;"",[1]!b_info_carrydate(A6),"")</f>
-        <v>2022-04-11</v>
-      </c>
-      <c r="D6" t="str">
-        <f>IF(A6&lt;&gt;"",[1]!b_info_maturitydate(A6),"")</f>
-        <v>2022-07-11</v>
-      </c>
-      <c r="E6" s="3">
-        <f>IF(A6&lt;&gt;"",[1]!b_issue_issueprice(A6),"")</f>
-        <v>99.570999999999998</v>
-      </c>
-      <c r="F6" s="3">
-        <f>IF(A6&lt;&gt;"",[1]!b_info_couponrate(A6),"")</f>
-        <v>1.7269000000000001</v>
-      </c>
-      <c r="G6" t="str">
-        <f>IF(A6&lt;&gt;"",[1]!b_info_coupon(A6),"")</f>
-        <v>贴现</v>
-      </c>
-      <c r="H6">
-        <f>IF(A6&lt;&gt;"",[1]!b_info_interestfrequency(A6),"")</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <f>IF(A6&lt;&gt;"",[1]!b_anal_yield_cnbd(A6,parameter!C$2,1),"")</f>
-        <v>1.5398000000000001</v>
+        <v>3.048</v>
       </c>
     </row>
   </sheetData>
